--- a/Cleaningschedule.xlsx
+++ b/Cleaningschedule.xlsx
@@ -67,8 +67,8 @@
   <dimension ref="A1:B359"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" customWidth="true"/>
-    <col min="2" max="2" width="4.1796875" customWidth="true"/>
+    <col min="1" max="1" width="4.1796875" customWidth="true"/>
+    <col min="2" max="2" width="3.1796875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -81,2866 +81,2866 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B2" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B3" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B4" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B5" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B6" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B7" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B8" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B9" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B10" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B12" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B13" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B14" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B15" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B16" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B17" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B18" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B19" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B20" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B21" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B22" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B23" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B24" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B25" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B26" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B27" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B28" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B29" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B30" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B31" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B32" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B33" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B34" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B35" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B36" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B37" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B38" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B39" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B40" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B41" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B42" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B43" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B44" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B45" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B46" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B47" s="0">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
+        <v>104</v>
+      </c>
+      <c r="B48" s="0">
         <v>15</v>
-      </c>
-      <c r="B48" s="0">
-        <v>104</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
+        <v>104</v>
+      </c>
+      <c r="B49" s="0">
         <v>15</v>
-      </c>
-      <c r="B49" s="0">
-        <v>104</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
+        <v>104</v>
+      </c>
+      <c r="B50" s="0">
         <v>15</v>
-      </c>
-      <c r="B50" s="0">
-        <v>104</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
+        <v>104</v>
+      </c>
+      <c r="B51" s="0">
         <v>15</v>
-      </c>
-      <c r="B51" s="0">
-        <v>104</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
+        <v>104</v>
+      </c>
+      <c r="B52" s="0">
         <v>15</v>
-      </c>
-      <c r="B52" s="0">
-        <v>104</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
+        <v>104</v>
+      </c>
+      <c r="B53" s="0">
         <v>15</v>
-      </c>
-      <c r="B53" s="0">
-        <v>104</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
+        <v>104</v>
+      </c>
+      <c r="B54" s="0">
         <v>15</v>
-      </c>
-      <c r="B54" s="0">
-        <v>104</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
+        <v>104</v>
+      </c>
+      <c r="B55" s="0">
         <v>15</v>
-      </c>
-      <c r="B55" s="0">
-        <v>104</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
+        <v>104</v>
+      </c>
+      <c r="B56" s="0">
         <v>15</v>
-      </c>
-      <c r="B56" s="0">
-        <v>104</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
+        <v>104</v>
+      </c>
+      <c r="B57" s="0">
         <v>15</v>
-      </c>
-      <c r="B57" s="0">
-        <v>104</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
+        <v>104</v>
+      </c>
+      <c r="B58" s="0">
         <v>15</v>
-      </c>
-      <c r="B58" s="0">
-        <v>104</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
+        <v>104</v>
+      </c>
+      <c r="B59" s="0">
         <v>15</v>
-      </c>
-      <c r="B59" s="0">
-        <v>104</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
+        <v>104</v>
+      </c>
+      <c r="B60" s="0">
         <v>15</v>
-      </c>
-      <c r="B60" s="0">
-        <v>104</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
+        <v>104</v>
+      </c>
+      <c r="B61" s="0">
         <v>15</v>
-      </c>
-      <c r="B61" s="0">
-        <v>104</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B62" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B63" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B64" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B65" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B66" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B67" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B68" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B69" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B70" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B71" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B72" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B73" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B74" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B75" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B76" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B77" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B78" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B79" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B80" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B81" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B82" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B83" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B84" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B85" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B86" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B87" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B88" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B89" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B90" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B91" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B92" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B93" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B94" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B95" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B96" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B97" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B98" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B99" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B100" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B101" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B102" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B103" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B104" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B105" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B106" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B107" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B108" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B109" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B110" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B111" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B112" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B113" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B114" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B115" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B116" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B117" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B118" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B119" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B120" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B121" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B122" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B123" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B124" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B125" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B126" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B127" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B128" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B129" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B130" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B131" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B132" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B133" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B134" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B135" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B136" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B137" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B138" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B139" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B140" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B141" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B142" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B143" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B144" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B145" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B146" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B147" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B148" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B149" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B150" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B151" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B152" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B153" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B154" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B155" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B156" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B157" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B158" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B159" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B160" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B161" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B162" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B163" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B164" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B165" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B166" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B167" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B168" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B169" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B170" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B171" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B172" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B173" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B174" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B175" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B176" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B177" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B178" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B179" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B180" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B181" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B182" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B183" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B184" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B185" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B186" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B187" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B188" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B189" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B190" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B191" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B192" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B193" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B194" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B195" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B196" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B197" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B198" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B199" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B200" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B201" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B202" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B203" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B204" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B205" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B206" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B207" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B208" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B209" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B210" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B211" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B212" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B213" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B214" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B215" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B216" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B217" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B218" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B219" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B220" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B221" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B222" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B223" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B224" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B225" s="0">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B226" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B227" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B228" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B229" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B230" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B231" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B232" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B233" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B234" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B235" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B236" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B237" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B238" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B239" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B240" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B241" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B242" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B243" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B244" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B245" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B246" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B247" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B248" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B249" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B250" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B251" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B252" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B253" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B254" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B255" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B256" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B257" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B258" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B259" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B260" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B261" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B262" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B263" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B264" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B265" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B266" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B267" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B268" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B269" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B270" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B271" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B272" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B273" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B274" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B275" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B276" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B277" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B278" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B279" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B280" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B281" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B282" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B283" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B284" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B285" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B286" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B287" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B288" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B289" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B290" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B291" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B292" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B293" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B294" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B295" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B296" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B297" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B298" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B299" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B300" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B301" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B302" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B303" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B304" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B305" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B306" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B307" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B308" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B309" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B310" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B311" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B312" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B313" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B314" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B315" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B316" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B317" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B318" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B319" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B320" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B321" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B322" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B323" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B324" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B325" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B326" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B327" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B328" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B329" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B330" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B331" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B332" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B333" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B334" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B335" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B336" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B337" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B338" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B339" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B340" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B341" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B342" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B343" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B344" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B345" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B346" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B347" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B348" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B349" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B350" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B351" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B352" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B353" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B354" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B355" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B356" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B357" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B358" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="0">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B359" s="0">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
